--- a/_data/aquariumEntities.xlsx
+++ b/_data/aquariumEntities.xlsx
@@ -11,63 +11,123 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="224">
+  <si>
+    <t>commonName</t>
   </si>
   <si>
     <t>scientificName</t>
   </si>
   <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>temperment</t>
+  </si>
+  <si>
+    <t>tankArea</t>
+  </si>
+  <si>
+    <t>minTankSize</t>
+  </si>
+  <si>
+    <t>diet</t>
+  </si>
+  <si>
+    <t>breeding</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>phRange</t>
+  </si>
+  <si>
+    <t>hardnessRange</t>
+  </si>
+  <si>
+    <t>temperatureRange</t>
+  </si>
+  <si>
+    <t>lifespanRange</t>
+  </si>
+  <si>
     <t>description</t>
   </si>
   <si>
-    <t>tempMin</t>
-  </si>
-  <si>
-    <t>tempMax</t>
-  </si>
-  <si>
-    <t>minLifespan</t>
-  </si>
-  <si>
-    <t>maxLifespan</t>
-  </si>
-  <si>
-    <t>minpH</t>
-  </si>
-  <si>
-    <t>maxpH</t>
-  </si>
-  <si>
-    <t>minGH</t>
-  </si>
-  <si>
-    <t>maxGH</t>
-  </si>
-  <si>
-    <t>perGallon</t>
-  </si>
-  <si>
-    <t>isLivebearer</t>
+    <t>source</t>
   </si>
   <si>
     <t>cherry shrimp</t>
   </si>
   <si>
-    <t>Neocaridina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hese hardy shrimp can adapt less ideal aquarium conditions and are perfect for those looking to keep their first shrimp colony. Being hardy, adaptable, and prolific, Neocaridina Davidi (aka the dwarf cherry shrimp) are an ideal choice for any aquarist interested in shrimp. They look excellent in planted tanks because their bright red color contrasts well against the greens of the plants. Other common species include the Yellow/Gold Shrimp, Blue Dream Shrimp, Sunkist Orange, and the Green Jade Shrimp. </t>
-  </si>
-  <si>
-    <t>caridina</t>
-  </si>
-  <si>
-    <t>Caridina</t>
-  </si>
-  <si>
-    <t>These unique shrimp are typically more expensive to purchase than Neocardinia and require more precise care when living in your tank. These cousins of the Neocardinia are a little more difficult to care for, however, you are rewarded with beautiful displays of color. Cardinia Contonensis have seen impressive color strains thanks to years of selective breeding.</t>
+    <t>Neocaridina davidi</t>
+  </si>
+  <si>
+    <t>Atyidae</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>peaceful</t>
+  </si>
+  <si>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t>omnivore</t>
+  </si>
+  <si>
+    <t>eggs</t>
+  </si>
+  <si>
+    <t>beginner</t>
+  </si>
+  <si>
+    <t>6.5,8</t>
+  </si>
+  <si>
+    <t>4,8</t>
+  </si>
+  <si>
+    <t>57,84</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>Neocaridina davidi is a freshwater shrimp from Taiwan which is commonly kept in aquaria. The natural coloration of the shrimp is green-brown. There are a wide range of colors such as red, yellow, orange, green, blue, violet, black, etc., however, the red morph is more frequently sold. The density of coloration on adult shrimp, dependent on breeding, determines their sale price and "quality" (grading).[5] This "quality" is purely aesthetic, as the size, behavior and other characteristics of the animal is more or less equal across varieties.</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Neocaridina_davidi</t>
+  </si>
+  <si>
+    <t>bee shrimp</t>
+  </si>
+  <si>
+    <t>Caridina cantonensis</t>
+  </si>
+  <si>
+    <t>intermediate</t>
+  </si>
+  <si>
+    <t>6,7.5</t>
+  </si>
+  <si>
+    <t>4,6</t>
+  </si>
+  <si>
+    <t>64,76</t>
+  </si>
+  <si>
+    <t>Caridina cantonensis, the bee shrimp, is a species of small freshwater shrimp in the family Atyidae. It is native to Taiwan.[1] These shrimp are scavengers, and eat small pieces of decayed vegetation and algae</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Bee_shrimp</t>
   </si>
   <si>
     <t>guppy</t>
@@ -76,7 +136,31 @@
     <t>Poecilia reticulata</t>
   </si>
   <si>
-    <t>The Guppy (Poecilia reticulata) is one of the most popular freshwater fish species and there are plenty of reasons for their popularity. They are colorful, lively, extremely fun to watch, and are adaptable to a great variety of conditions. However, one thing that certainly sets them apart as a species is the fact that they are much easier to keep than most other species.</t>
+    <t>poeciliidae</t>
+  </si>
+  <si>
+    <t>South America</t>
+  </si>
+  <si>
+    <t>top,middle</t>
+  </si>
+  <si>
+    <t>live-bearer</t>
+  </si>
+  <si>
+    <t>5,30</t>
+  </si>
+  <si>
+    <t>68,78</t>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>The guppy has been captive bred for over 100 years, but originally came from South America. They are named for Robert John Lechmere Guppy who originally identified these fish on the island of Trinidad. They are native to freshwater streams in the north of South America, including Surinam, Guyana and Venezuela, and the Caribbean islands, including Barbados, Trinidad and Tobago. Now, they have been introduced to every continent but Antarctica and can be found in many warm waterways around the world</t>
+  </si>
+  <si>
+    <t>https://www.thesprucepets.com/guppy-fish-species-profile-5078901</t>
   </si>
   <si>
     <t>betta</t>
@@ -85,7 +169,40 @@
     <t>Betta splendens</t>
   </si>
   <si>
-    <t>Bettas (Betta splendens), also called Siamese fighting fish, are native to the Mekong River basin in Southeast Asia. They can be found in Laos, Thailand, Cambodia and Vietnam. Betta fish live in slow moving waters like swamps, small creeks or even rice paddies. Bettas typically live in what’s called blackwater environments where the water is a dark brown color.</t>
+    <t>Belontidae</t>
+  </si>
+  <si>
+    <t>Cambodia,Thailand</t>
+  </si>
+  <si>
+    <t>agressive</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>insectivore</t>
+  </si>
+  <si>
+    <t>bubble nest</t>
+  </si>
+  <si>
+    <t>6.8,7.4</t>
+  </si>
+  <si>
+    <t>0,20</t>
+  </si>
+  <si>
+    <t>72,82</t>
+  </si>
+  <si>
+    <t>3,5</t>
+  </si>
+  <si>
+    <t>Betta fish, commonly referred to as Siamese fighting fish, are one of the most popular fish breeds. With its jewel-toned coloring and flowing fins, betta fish are a great addition to any fish-lover's home. Not all betta fish fight—only the males. Female bettas can be kept together. Despite how they are often sold, bettas should not be kept in a fish bowl. Bettas are happiest when kept in water that is soft, warm, with a neutral to slightly acidic pH.</t>
+  </si>
+  <si>
+    <t>https://www.thesprucepets.com/siamese-fighting-fish-bettas-1378308</t>
   </si>
   <si>
     <t>zebra danio</t>
@@ -94,14 +211,485 @@
     <t>Danio rerio</t>
   </si>
   <si>
-    <t xml:space="preserve">Zebra danios are a favorite of freshwater fish hobbyists because of their ease of care. They are also prolific breeders and the easiest type of egglayers to breed. With its attractively striped, black and white zebra-patterned body, these fish are easy to recognize. </t>
+    <t>Cyprinidae</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>top, middle</t>
+  </si>
+  <si>
+    <t>6.5,7</t>
+  </si>
+  <si>
+    <t>5,12</t>
+  </si>
+  <si>
+    <t>64,74</t>
+  </si>
+  <si>
+    <t>Zebra danios are a favorite of freshwater fish hobbyists because of their ease of care. They are also prolific breeders and the easiest type of egglayers to breed. With its attractively striped, black and white zebra-patterned body, these fish are easy to recognize. Zebrafish are very durable and can withstand an impressive range of water temperatures and conditions. They will generally do just fine without a water heater as they are comfortable at temperatures down to the low 60s F. Unlike most fish species, they are loyal to their breeding partner and mate for life.</t>
+  </si>
+  <si>
+    <t>https://www.thesprucepets.com/zebra-danio-1378473</t>
+  </si>
+  <si>
+    <t>molly</t>
+  </si>
+  <si>
+    <t>Poecilia sphenops</t>
+  </si>
+  <si>
+    <t>Poeciliidae</t>
+  </si>
+  <si>
+    <t>Southern North America, Mexico</t>
+  </si>
+  <si>
+    <t>middle</t>
+  </si>
+  <si>
+    <t>7.5,8.5</t>
+  </si>
+  <si>
+    <t>15,30</t>
+  </si>
+  <si>
+    <t>75,79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The genus mollie or mollienesia, as it was originally classified, has some of the most beautiful and unusual varieties of live-bearer fish. The sailfin mollie is arguably one of the most exotic fish available of any genus. However, mollies are perhaps the most difficult of all of the common live-bearers to keep as they are the most delicate of the live-bearers. </t>
+  </si>
+  <si>
+    <t>https://www.thesprucepets.com/the-mollie-1380726</t>
+  </si>
+  <si>
+    <t>chili rasbora</t>
+  </si>
+  <si>
+    <t>Boraras brigittae</t>
+  </si>
+  <si>
+    <t>Characidae</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>4,7</t>
+  </si>
+  <si>
+    <t>3,12</t>
+  </si>
+  <si>
+    <t>68,82.4</t>
+  </si>
+  <si>
+    <t>6,8</t>
+  </si>
+  <si>
+    <t>Native to Indonesia’s Southwestern Borneo, Chili Rasbora, also known as the Mosquito Rasbora, is one of the smallest tropical fish found in home aquariums. The males are known for their bright ruby red color (when they are properly cared for.)</t>
+  </si>
+  <si>
+    <t>https://www.fishkeepingworld.com/chili-rasbora/</t>
+  </si>
+  <si>
+    <t>blue gourami</t>
+  </si>
+  <si>
+    <t>Trichogaster trichopterus</t>
+  </si>
+  <si>
+    <t>Osphronemidae</t>
+  </si>
+  <si>
+    <t>Southeast Asia</t>
+  </si>
+  <si>
+    <t>moderately agressive</t>
+  </si>
+  <si>
+    <t>5,35</t>
+  </si>
+  <si>
+    <t>74,82</t>
+  </si>
+  <si>
+    <t>4,5</t>
+  </si>
+  <si>
+    <t>This widespread species occurs naturally throughout southeast Asia. It may be found in the Mekong River basin in southern China, Vietnam, Laos, Cambodia, Thailand, Myanmar, Malaysia, Sumatra, Java, and Kalimantan. Outside of its native range, it has been introduced in Sulawesi, Philippines, Taiwan, Papua New Guinea, and the islands of Reunion, Seychelles, Namibia, the Dominican Republic, Puerto Rico, and Colombia. The blue gourami frequents shallow lowland marshes, swamps, and peatlands, but may also be found in streams and canals or, during flood season, in flooded forests</t>
+  </si>
+  <si>
+    <t>https://www.thesprucepets.com/blue-gourami-1381023</t>
+  </si>
+  <si>
+    <t>sparkling gourami</t>
+  </si>
+  <si>
+    <t>Trichopsis pumila</t>
+  </si>
+  <si>
+    <t>The Sparkling Gourami (Trichopsis pumila), also known as Pygmy Gourami, is a small freshwater fish native to the ponds, slow rivers, and rice fields of Southeast Asia. It is a member of the Osphronemidae family and the Anabantiformes order.</t>
+  </si>
+  <si>
+    <t>https://www.fishkeepingworld.com/sparkling-gourami/#h21</t>
+  </si>
+  <si>
+    <t>honey gourami</t>
+  </si>
+  <si>
+    <t>Trichogaster chuna</t>
+  </si>
+  <si>
+    <t>cardinal tetra</t>
+  </si>
+  <si>
+    <t>Paracheirodon axelrodi</t>
+  </si>
+  <si>
+    <t>middle, top</t>
+  </si>
+  <si>
+    <t>4.6,6.2</t>
+  </si>
+  <si>
+    <t>0,4</t>
+  </si>
+  <si>
+    <t>73,81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arguably the most popular of the small tetras, the cardinal tetra is similar in appearance to a longtime aquarium favorite, the neon tetra. Cardinal tetras are an active schooling fish, and they live peacefully in a community aquarium. Although they are difficult to breed in captivity, tetras remain a very popular aquarium fish. </t>
+  </si>
+  <si>
+    <t>https://www.thesprucepets.com/cardinal-tetra-1378417</t>
+  </si>
+  <si>
+    <t>harlequin rasbora</t>
+  </si>
+  <si>
+    <t>Trigonostigma heteromorpha</t>
+  </si>
+  <si>
+    <t>Southeast Asia, Malaysia, Singapore, Sumatra, Thailand</t>
+  </si>
+  <si>
+    <t>0,12</t>
+  </si>
+  <si>
+    <t>73,82</t>
+  </si>
+  <si>
+    <t>Fish hobbyists love the harlequin rasbora—it has a beautiful metallic color and it is easy to care for. A large school makes an aquarium vivid and vibrant with movement. This is a great fish for a smaller-sized community tank as it is peaceable with most other species. It is a smaller fish, so keep it with like-sized specimens; larger fish might be attracted by its shimmer and try to make a meal out of it.</t>
+  </si>
+  <si>
+    <t>https://www.thesprucepets.com/harlequin-rasbora-1378462</t>
+  </si>
+  <si>
+    <t>neon tetra</t>
+  </si>
+  <si>
+    <t>Paracheirodon innesi</t>
+  </si>
+  <si>
+    <t>Colombia, Peru, Brazil</t>
+  </si>
+  <si>
+    <t>mid</t>
+  </si>
+  <si>
+    <t>6.8,7.2</t>
+  </si>
+  <si>
+    <t>0,10</t>
+  </si>
+  <si>
+    <t>68,79</t>
+  </si>
+  <si>
+    <t>The dazzling crown jewel of aquariums everywhere, the hardy little neon tetra fish was originally imported from South America. Neon tetras must be kept in groups with at least a half-dozen other neon tetras as they are a shoaling species. With peaceful dispositions, they are also able to be kept with other species of fish. They have a decently long life expectancy of 5 years.</t>
+  </si>
+  <si>
+    <t>https://www.thesprucepets.com/neon-tetra-paracheirodon-1381835</t>
+  </si>
+  <si>
+    <t>bandit cory</t>
+  </si>
+  <si>
+    <t>Corydoras metae</t>
+  </si>
+  <si>
+    <t>Callichthyidae</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>5,10</t>
+  </si>
+  <si>
+    <t>72,79</t>
+  </si>
+  <si>
+    <t>The pretty little bandit cory is a scaleless fish, so it requires good water quality. As a peaceful addition to a community tank, they get along very well with other small species. Very social, they do best in groups of three or more, but they are nocturnal feeders, so they may be shy during the day. During breeding season, however, this fish becomes extremely active, and their breeding rituals are carefully orchestrated.</t>
+  </si>
+  <si>
+    <t>https://www.thesprucepets.com/bandit-cory-1378376</t>
+  </si>
+  <si>
+    <t>bronze cory</t>
+  </si>
+  <si>
+    <t>Corydoras aeneus</t>
+  </si>
+  <si>
+    <t>Argentina, Colombia, Venezuela</t>
+  </si>
+  <si>
+    <t>5.8,7</t>
+  </si>
+  <si>
+    <t>2,30</t>
+  </si>
+  <si>
+    <t>The bronze corydoras, also known as a bronze cory or a green cory, is a small, tropical freshwater catfish that ranks among the most popular catfish kept in home freshwater aquariums. These fish are easy to care for and hardy, but they are somewhat shy.</t>
+  </si>
+  <si>
+    <t>https://www.thesprucepets.com/bronze-cory-1378378</t>
+  </si>
+  <si>
+    <t>julii cory</t>
+  </si>
+  <si>
+    <t>Corydoras julii</t>
+  </si>
+  <si>
+    <t>Corydoradinae</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>6.5,7.8</t>
+  </si>
+  <si>
+    <t>73,79</t>
+  </si>
+  <si>
+    <t>Julii corys are cute bottom dwellers that will clean your tank with the sensitive barbels they use to root around for food at night. But any fish attempting to swallow this diminutive catfish will be in for a painful surprise of spikes and armor. This species has the ability to rotate the eye, which gives it the appearance of winking. Hence, fishkeepers often find this fish quite entertaining and endearing.</t>
+  </si>
+  <si>
+    <t>https://www.thesprucepets.com/julii-cory-1380833</t>
+  </si>
+  <si>
+    <t>panda cory</t>
+  </si>
+  <si>
+    <t>Corydoras panda</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>6,7</t>
+  </si>
+  <si>
+    <t>2,12</t>
+  </si>
+  <si>
+    <t>68,77</t>
+  </si>
+  <si>
+    <t>The panda cory, or the panda catfish, is a South American species of catfish with a black and off-white coloration pattern similar to a giant panda. Generally peaceful and social, panda corys can be a good addition to a smaller freshwater aquarium.</t>
+  </si>
+  <si>
+    <t>https://www.thesprucepets.com/panda-cory-1380838</t>
+  </si>
+  <si>
+    <t>pepper cory</t>
+  </si>
+  <si>
+    <t>Corydoras paleatus</t>
+  </si>
+  <si>
+    <t>Argentina, Brazil, Paraguay, Suriname, Uruguay</t>
+  </si>
+  <si>
+    <t>moderate</t>
+  </si>
+  <si>
+    <t>72,78</t>
+  </si>
+  <si>
+    <t>Pepper corys are small, peaceful fish that can help keep the bottom of your tank sparkling clean. They're also fun, interesting pets that can vocalize during courtship. Another habit they have is "winking" at their owners; their articulated eyes allow them to tilt the eye down and back up without moving the head.</t>
+  </si>
+  <si>
+    <t>https://www.thesprucepets.com/pepper-cory-1380839</t>
+  </si>
+  <si>
+    <t>skunk cory</t>
+  </si>
+  <si>
+    <t>Corydoras arcuatus</t>
+  </si>
+  <si>
+    <t>6.8,7.5</t>
+  </si>
+  <si>
+    <t>2,25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skunk Corys are more sensitive to elevated ammonia and nitrates than other species. For this reason, they are not recommended for a brand new aquarium. Instead, wait until the tank is matured before adding this species. </t>
+  </si>
+  <si>
+    <t>https://www.thesprucepets.com/cory-species-1381075</t>
+  </si>
+  <si>
+    <t>three stripe cory</t>
+  </si>
+  <si>
+    <t>Corydoras trileatus</t>
+  </si>
+  <si>
+    <t>callichthyidae</t>
+  </si>
+  <si>
+    <t>Peru, Brazil</t>
+  </si>
+  <si>
+    <t>5.8,7.2</t>
+  </si>
+  <si>
+    <t>0,18</t>
+  </si>
+  <si>
+    <t>Three stripe corys are small catfish that are attractive and easy to breed. As bottom dwellers, they enjoy sifting through gravel and other substrates in search of food, which helps to keep the aquarium free of detritus. As with all of the cory catfish, their breeding rituals is an interesting display of parental investment, although these fish do not rear their young.</t>
+  </si>
+  <si>
+    <t>https://www.thesprucepets.com/three-stripe-cory-1380834</t>
+  </si>
+  <si>
+    <t>platy</t>
+  </si>
+  <si>
+    <t>Xiphophorus macalatus</t>
+  </si>
+  <si>
+    <t>Guatemala, Honduras, Mexico</t>
+  </si>
+  <si>
+    <t>7.0,8.2</t>
+  </si>
+  <si>
+    <t>10,25</t>
+  </si>
+  <si>
+    <t>64,77</t>
+  </si>
+  <si>
+    <t>Platys are one of the several livebearing species of freshwater fish popular with aquarium enthusiasts. Grouped together with their close cousins, the swordtails, platys are part of the genus known as Xiphophorus. They are hardy, compatible with other fish, and are extremely easy to breed. They also come in a variety of attractive colors and forms.</t>
+  </si>
+  <si>
+    <t>https://www.thesprucepets.com/platy-types-1381066</t>
+  </si>
+  <si>
+    <t>neon goby</t>
+  </si>
+  <si>
+    <t>Elacatinus oceanops</t>
+  </si>
+  <si>
+    <t>Gobiidae</t>
+  </si>
+  <si>
+    <t>Caribbean</t>
+  </si>
+  <si>
+    <t>8.1,8.4</t>
+  </si>
+  <si>
+    <t>8,12</t>
+  </si>
+  <si>
+    <t>Neon gobies make a vibrant addition to any community reef or saltwater aquarium. Although small, these peaceful fish are characterized by a vibrant blue stripe running along their length, giving them their other moniker of Neon Blue Goby. Members of the cleaner goby group, you may see them nibbling around larger fish to help keep them clean and healthy. The neon goby is easy to care for and readily breeds in even beginner setups.</t>
+  </si>
+  <si>
+    <t>https://www.thesprucepets.com/neon-goby-fish-species-profile-5077182</t>
+  </si>
+  <si>
+    <t>pea puffer</t>
+  </si>
+  <si>
+    <t>Carinotetraodon travancoricus</t>
+  </si>
+  <si>
+    <t>Tetradontidae</t>
+  </si>
+  <si>
+    <t>carnivore</t>
+  </si>
+  <si>
+    <t>7,8</t>
+  </si>
+  <si>
+    <t>5,15</t>
+  </si>
+  <si>
+    <t>A recent, novel addition to the freshwater aquarium hobby, Pea Puffers, known by many other names, are very small members of the pufferfish family. However, don't let their small size and cute appearance trick you! Some of these tiny fish can be very aggressive, even against their own kind. Be sure to give them a proper diet and lots of room to ensure a healthy and thriving population.</t>
+  </si>
+  <si>
+    <t>https://www.thesprucepets.com/pea-puffer-fish-species-profile-5101734</t>
+  </si>
+  <si>
+    <t>flame tetra</t>
+  </si>
+  <si>
+    <t>Hyphessobrycon flammeus</t>
+  </si>
+  <si>
+    <t>South America, Brazil</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>5.5,7.5</t>
+  </si>
+  <si>
+    <t>3,15</t>
+  </si>
+  <si>
+    <t>The flame tetra, or Von Rio tetra, is one of the most entrancing beauties of all freshwater aquarium fish, especially when it is sporting its full breeding colors. At one time, almost no community aquarium was complete without this fish. During the 1940s and 1950s, it was among the best sellers of all characin fish. One reason for its overwhelming popularity was its ability to survive in a wide temperature range. Before the days of affordable heating for the home aquarium, this went a long way towards making it the first choice as a first fish.</t>
+  </si>
+  <si>
+    <t>https://www.thesprucepets.com/flame-tetra-1380991</t>
+  </si>
+  <si>
+    <t>emperor tetra</t>
+  </si>
+  <si>
+    <t>Nematobrycon palmeri</t>
+  </si>
+  <si>
+    <t>5,7.8</t>
+  </si>
+  <si>
+    <t>0,25</t>
+  </si>
+  <si>
+    <t>If you're looking for an attractive addition to a community tank, the emperor tetra may be your ideal choice. Not only is it a handsome, iridescent species with impressive reflective rainbow hues, but it's also a peaceful and hardy fish in a mixed community of South American freshwater fish. Emperor tetras are easy to find and relatively inexpensive.</t>
+  </si>
+  <si>
+    <t>https://www.thesprucepets.com/emperor-tetra-1381832</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -109,19 +697,45 @@
     </font>
     <font>
       <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
     </font>
     <font>
       <sz val="12.0"/>
       <color rgb="FF1D1D1D"/>
       <name val="Helvetica"/>
     </font>
+    <font>
+      <sz val="13.0"/>
+      <color rgb="FF222222"/>
+      <name val="&quot;Libre Baskerville&quot;"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="13.0"/>
+      <color rgb="FF222222"/>
+      <name val="&quot;Libre Baskerville&quot;"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;open sans&quot;"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,6 +748,12 @@
         <bgColor rgb="FFFAFAFA"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -141,7 +761,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -155,6 +775,18 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -372,6 +1004,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="12" max="12" width="15.43"/>
+    <col customWidth="1" min="13" max="13" width="18.0"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -413,214 +1049,1298 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2"/>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>13</v>
+      <c r="A2" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2">
-        <v>65.0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>84.0</v>
-      </c>
-      <c r="F2" s="3">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="2">
         <v>1.0</v>
       </c>
-      <c r="G2" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="H2" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="I2" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="J2" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="K2" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="L2" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="M2" s="3" t="b">
-        <v>1</v>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>16</v>
+      <c r="A3" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="2">
-        <v>64.0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>74.0</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2">
         <v>1.0</v>
       </c>
-      <c r="G3" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="H3" s="3">
-        <v>6.7</v>
-      </c>
-      <c r="I3" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="J3" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="K3" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="L3" s="3">
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="2">
         <v>10.0</v>
       </c>
-      <c r="M3" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="H4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="F6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="R7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="2">
-        <v>64.0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>80.0</v>
-      </c>
-      <c r="F4" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>6.8</v>
-      </c>
-      <c r="I4" s="3">
-        <v>7.8</v>
-      </c>
-      <c r="J4" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="K4" s="3">
-        <v>12.0</v>
-      </c>
-      <c r="L4" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="M4" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="G15" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="J15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>82.0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="G5" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="I5" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="J5" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="K5" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="M5" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="2">
-        <v>64.0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>74.0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="G6" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="I6" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="J6" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="K6" s="3">
-        <v>12.0</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="M6" s="3" t="b">
-        <v>1</v>
+      <c r="K15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G22" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G26" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="P26" s="6" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="P2"/>
+    <hyperlink r:id="rId2" ref="P3"/>
+    <hyperlink r:id="rId3" ref="P4"/>
+    <hyperlink r:id="rId4" ref="O5"/>
+    <hyperlink r:id="rId5" ref="P5"/>
+    <hyperlink r:id="rId6" ref="P6"/>
+    <hyperlink r:id="rId7" ref="P7"/>
+    <hyperlink r:id="rId8" ref="P8"/>
+    <hyperlink r:id="rId9" ref="P9"/>
+    <hyperlink r:id="rId10" ref="O10"/>
+    <hyperlink r:id="rId11" location="h21" ref="P10"/>
+    <hyperlink r:id="rId12" ref="P11"/>
+    <hyperlink r:id="rId13" ref="P12"/>
+    <hyperlink r:id="rId14" ref="P13"/>
+    <hyperlink r:id="rId15" ref="P14"/>
+    <hyperlink r:id="rId16" ref="P15"/>
+    <hyperlink r:id="rId17" ref="O16"/>
+    <hyperlink r:id="rId18" ref="P16"/>
+    <hyperlink r:id="rId19" ref="P17"/>
+    <hyperlink r:id="rId20" ref="P18"/>
+    <hyperlink r:id="rId21" ref="P19"/>
+    <hyperlink r:id="rId22" ref="P20"/>
+    <hyperlink r:id="rId23" ref="P21"/>
+    <hyperlink r:id="rId24" ref="P22"/>
+    <hyperlink r:id="rId25" ref="P23"/>
+    <hyperlink r:id="rId26" ref="P24"/>
+    <hyperlink r:id="rId27" ref="P25"/>
+    <hyperlink r:id="rId28" ref="P26"/>
+  </hyperlinks>
+  <drawing r:id="rId29"/>
 </worksheet>
 </file>